--- a/Flight Hardware/Packet Structure/radio_packet.xlsx
+++ b/Flight Hardware/Packet Structure/radio_packet.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Big-Red-Sat-1\Flight Hardware\Packet Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC09ECDA-C722-4945-9B24-994C4D321228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5595FB5-68F1-46B2-94EE-FBB21495B75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet Structure" sheetId="1" r:id="rId1"/>
     <sheet name="New Packet Structure" sheetId="3" r:id="rId2"/>
     <sheet name="New New Packet Structure" sheetId="4" r:id="rId3"/>
     <sheet name="New New New Packet Structure" sheetId="5" r:id="rId4"/>
-    <sheet name="Data Projections" sheetId="2" r:id="rId5"/>
-    <sheet name="Sun Sensor" sheetId="7" r:id="rId6"/>
-    <sheet name="Rotation" sheetId="8" r:id="rId7"/>
+    <sheet name="Final Packet Structure" sheetId="9" r:id="rId5"/>
+    <sheet name="Data Projections" sheetId="2" r:id="rId6"/>
+    <sheet name="Sun Sensor" sheetId="7" r:id="rId7"/>
+    <sheet name="Rotation" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="211">
   <si>
     <t>Byte</t>
   </si>
@@ -504,6 +505,177 @@
   </si>
   <si>
     <t>Raw</t>
+  </si>
+  <si>
+    <t>V7</t>
+  </si>
+  <si>
+    <t>I7</t>
+  </si>
+  <si>
+    <t>V8</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>I8</t>
+  </si>
+  <si>
+    <t>V9</t>
+  </si>
+  <si>
+    <t>I9</t>
+  </si>
+  <si>
+    <t>V10</t>
+  </si>
+  <si>
+    <t>I10</t>
+  </si>
+  <si>
+    <t>V11</t>
+  </si>
+  <si>
+    <t>I11</t>
+  </si>
+  <si>
+    <t>V12</t>
+  </si>
+  <si>
+    <t>I12</t>
+  </si>
+  <si>
+    <t>V13</t>
+  </si>
+  <si>
+    <t>I13</t>
+  </si>
+  <si>
+    <t>V14</t>
+  </si>
+  <si>
+    <t>I14</t>
+  </si>
+  <si>
+    <t>Perovskite 1</t>
+  </si>
+  <si>
+    <t>Perovskite 2</t>
+  </si>
+  <si>
+    <t>Perovskite 3</t>
+  </si>
+  <si>
+    <t>GaAs</t>
+  </si>
+  <si>
+    <t>Flux</t>
+  </si>
+  <si>
+    <t>GaAs Temp MSB</t>
+  </si>
+  <si>
+    <t>GaAs Temp LSB</t>
+  </si>
+  <si>
+    <t>P1 Temp MSB</t>
+  </si>
+  <si>
+    <t>P1 Temp LSB</t>
+  </si>
+  <si>
+    <t>P2 Temp MSB</t>
+  </si>
+  <si>
+    <t>P2 Temp LSB</t>
+  </si>
+  <si>
+    <t>P3 Temp MSB</t>
+  </si>
+  <si>
+    <t>P3 Temp LSB</t>
+  </si>
+  <si>
+    <t>Sun Sensor Temp MSB</t>
+  </si>
+  <si>
+    <t>Sun Sensor Temp LSB</t>
+  </si>
+  <si>
+    <t>Seconday Payload</t>
+  </si>
+  <si>
+    <t>Gyro X MSB</t>
+  </si>
+  <si>
+    <t>Gyro X LSB</t>
+  </si>
+  <si>
+    <t>Gyro Y MSB</t>
+  </si>
+  <si>
+    <t>Gyro Y LSB</t>
+  </si>
+  <si>
+    <t>Gyro Z MSB</t>
+  </si>
+  <si>
+    <t>Gyro Z LSB</t>
+  </si>
+  <si>
+    <t>Mag X MSB</t>
+  </si>
+  <si>
+    <t>Mag X LSB</t>
+  </si>
+  <si>
+    <t>Mag Y MSB</t>
+  </si>
+  <si>
+    <t>Mag Y LSB</t>
+  </si>
+  <si>
+    <t>Mag Z MSB</t>
+  </si>
+  <si>
+    <t>Mag Z LSB</t>
+  </si>
+  <si>
+    <t>NC Time MSB</t>
+  </si>
+  <si>
+    <t>NC Time LSB</t>
+  </si>
+  <si>
+    <t>NO Time MSB</t>
+  </si>
+  <si>
+    <t>NO Time LSB</t>
+  </si>
+  <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <t>Tertiary Payload</t>
+  </si>
+  <si>
+    <t>Accel X MSB</t>
+  </si>
+  <si>
+    <t>Accel X LSB</t>
+  </si>
+  <si>
+    <t>Accel Y MSB</t>
+  </si>
+  <si>
+    <t>Accel Y LSB</t>
+  </si>
+  <si>
+    <t>Accel Z MSB</t>
+  </si>
+  <si>
+    <t>Accel Z LSB</t>
   </si>
 </sst>
 </file>
@@ -513,7 +685,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,6 +696,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -559,7 +737,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -572,6 +750,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1959,8 +2141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359602F9-FEBF-4D81-ABA6-90AAE0EB32F1}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2480,6 +2662,927 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8AFA3C-A47E-48F6-9ED8-05BA9452DF38}">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8174CB-6596-42C0-B80F-9E79D6DA342C}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -2577,7 +3680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A901706-3CBA-495E-AEA8-9A8A95B091F7}">
   <dimension ref="A1:D69"/>
   <sheetViews>
@@ -3762,7 +4865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D0D3CA-2BF1-4A73-B2A0-4DC22298D529}">
   <dimension ref="A1:D3"/>
   <sheetViews>

--- a/Flight Hardware/Packet Structure/radio_packet.xlsx
+++ b/Flight Hardware/Packet Structure/radio_packet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Big-Red-Sat-1\Flight Hardware\Packet Structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5595FB5-68F1-46B2-94EE-FBB21495B75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B57728-2C94-4B8A-86D6-74F8F2A1C0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Packet Structure" sheetId="1" r:id="rId1"/>
@@ -750,10 +750,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2142,7 +2142,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D17"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2666,7 +2666,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="C6" sqref="C6:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2683,29 +2683,29 @@
       <c r="B1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="6"/>
+      <c r="J1" s="7"/>
       <c r="K1" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3587,7 +3587,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
